--- a/23.xlsx
+++ b/23.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D50AC02-6F4B-4B73-816F-C25FE901309E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CE8976-9F75-4E76-8C62-4F3DC2218275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Health Report" sheetId="1" r:id="rId1"/>
+    <sheet name="HealthReport" sheetId="1" r:id="rId1"/>
     <sheet name="OS" sheetId="5" r:id="rId2"/>
     <sheet name="DB" sheetId="6" r:id="rId3"/>
     <sheet name="Budget breakdown" sheetId="2" r:id="rId4"/>
@@ -17,17 +17,17 @@
   </sheets>
   <definedNames>
     <definedName name="ChecklistTotal">SUM(#REF!)</definedName>
-    <definedName name="ColumnTitle1">Issuelist[[#Headers],[问题描述及建议]]</definedName>
+    <definedName name="ColumnTitle1">HealthReport!$B$27:$L$39</definedName>
     <definedName name="ColumnTitle2">Category[[#Headers],[Category]]</definedName>
     <definedName name="ColumnTitle3">ToDoList[[#Headers],[Done]]</definedName>
     <definedName name="ColumnTitle4" localSheetId="5">ShareList[[#Headers],[Name]]</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Health Report'!$26:$26</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">HealthReport!$26:$26</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'Share list'!$2:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'To-do list'!$3:$3</definedName>
-    <definedName name="RowTitleRegion1..C7">'Health Report'!$C$4</definedName>
+    <definedName name="RowTitleRegion1..C7">HealthReport!$C$4</definedName>
     <definedName name="SchoolYear">YEAR(TODAY())&amp;" - "&amp;YEAR(TODAY())+1</definedName>
-    <definedName name="SumItemsBought">COUNTIF(Issuelist[Bought],"&gt;0")</definedName>
-    <definedName name="SumItemsToBuy">COUNTIF(Issuelist[To buy],"&gt;0")</definedName>
+    <definedName name="SumItemsBought">COUNTIF(HealthReport!$L$27:$L$39,"&gt;0")</definedName>
+    <definedName name="SumItemsToBuy">COUNTIF(HealthReport!$H$27:$H$39,"&gt;0")</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -557,9 +557,6 @@
     <t>260352 Megabytes</t>
   </si>
   <si>
-    <t>交换分区</t>
-  </si>
-  <si>
     <t>APC2DB</t>
   </si>
   <si>
@@ -1695,6 +1692,11 @@
   <si>
     <t>----</t>
   </si>
+  <si>
+    <t>sm0ora11节点的/ghome和/soft使用率超80%
+建议最近一段时间持续关注</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1704,7 +1706,7 @@
     <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="3"/>
@@ -1909,12 +1911,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Corbel"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1925,6 +1921,21 @@
       <color rgb="FFE6E6FA"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1997,7 +2008,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2047,6 +2058,15 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2104,9 +2124,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2182,12 +2202,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="13" applyFont="1" applyFill="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2206,9 +2220,6 @@
     <xf numFmtId="9" fontId="22" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2224,9 +2235,6 @@
     <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2239,36 +2247,90 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="28" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="4" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="19" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1" justifyLastLine="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="19"/>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="19" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="19" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="19" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="23" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="22" fillId="7" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="14" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="4" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="19" applyAlignment="1">
+    <xf numFmtId="37" fontId="22" fillId="2" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="14" applyFont="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="22" fillId="7" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="14" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1" justifyLastLine="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="19"/>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="19" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="19" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="19" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -2293,154 +2355,7 @@
     <cellStyle name="货币[0]" xfId="11" builtinId="7" customBuiltin="1"/>
     <cellStyle name="超链接" xfId="14" builtinId="8" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="41">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="5" formatCode="#,##0_);\(#,##0\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <strike/>
@@ -2486,255 +2401,6 @@
       <font>
         <color theme="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="3"/>
-        <name val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Corbel"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2827,17 +2493,18 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="College Checklist" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="College Checklist" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="40"/>
-      <tableStyleElement type="headerRow" dxfId="39"/>
-      <tableStyleElement type="firstRowStripe" dxfId="38"/>
+      <tableStyleElement type="wholeTable" dxfId="13"/>
+      <tableStyleElement type="headerRow" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
     </tableStyle>
     <tableStyle name="Shopping List" pivot="0" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="37"/>
-      <tableStyleElement type="headerRow" dxfId="36"/>
+      <tableStyleElement type="wholeTable" dxfId="10"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF0066FF"/>
       <color rgb="FFD8EFF1"/>
       <color rgb="FFEAEAEA"/>
     </mruColors>
@@ -3123,7 +2790,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.9778037849330317E-2"/>
+          <c:x val="3.6786409381665122E-2"/>
           <c:y val="0.25048243969503814"/>
           <c:w val="0.90471623009879287"/>
           <c:h val="0.39820022497187851"/>
@@ -3138,7 +2805,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Health Report'!$A$1</c:f>
+              <c:f>HealthReport!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -3178,6 +2845,50 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:numFmt formatCode="0%" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-129A-442B-AB08-6F070EE98C93}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -3236,7 +2947,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Health Report'!$L$25</c:f>
+              <c:f>HealthReport!$L$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3245,9 +2956,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Health Report'!$L$26</c:f>
+              <c:f>HealthReport!$L$26</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0.52307692307692311</c:v>
@@ -3282,7 +2993,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3505,7 +3216,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Health Report'!$D$14</c:f>
+              <c:f>HealthReport!$D$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3618,7 +3329,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Health Report'!$C$15:$C$22</c:f>
+              <c:f>HealthReport!$C$15:$C$22</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -3650,7 +3361,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Health Report'!$D$15:$D$22</c:f>
+              <c:f>HealthReport!$D$15:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3692,7 +3403,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Health Report'!$E$14</c:f>
+              <c:f>HealthReport!$E$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3735,7 +3446,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Health Report'!$C$15:$C$22</c:f>
+              <c:f>HealthReport!$C$15:$C$22</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -3767,7 +3478,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Health Report'!$E$15:$E$22</c:f>
+              <c:f>HealthReport!$E$15:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3809,7 +3520,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Health Report'!$F$14</c:f>
+              <c:f>HealthReport!$F$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3847,7 +3558,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Health Report'!$C$15:$C$22</c:f>
+              <c:f>HealthReport!$C$15:$C$22</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -3879,7 +3590,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Health Report'!$F$15:$F$22</c:f>
+              <c:f>HealthReport!$F$15:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6035,8 +5746,8 @@
       <xdr:rowOff>162145</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>427695</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1227795</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>834610</xdr:rowOff>
     </xdr:to>
@@ -6080,15 +5791,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>783287</xdr:colOff>
+      <xdr:colOff>935687</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>364331</xdr:rowOff>
+      <xdr:rowOff>354806</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>329044</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1199283</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>21431</xdr:rowOff>
+      <xdr:rowOff>11906</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6118,15 +5829,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>305267</xdr:colOff>
+      <xdr:colOff>219542</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>116647</xdr:rowOff>
+      <xdr:rowOff>107122</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>664983</xdr:colOff>
+      <xdr:colOff>579258</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>169293</xdr:rowOff>
+      <xdr:rowOff>159768</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6250,39 +5961,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Issuelist" displayName="Issuelist" ref="B27:L39" headerRowCount="0">
-  <tableColumns count="11">
-    <tableColumn id="12" xr3:uid="{7D1CC152-0FB6-4120-8AA8-B4499708C353}" name="列5" totalsRowLabel="汇总" headerRowDxfId="34" dataDxfId="10" totalsRowDxfId="21" headerRowCellStyle="标题 2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="问题描述及建议" headerRowDxfId="33" dataDxfId="9" totalsRowDxfId="22" headerRowCellStyle="标题 2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="列2" headerRowDxfId="32" dataDxfId="8" headerRowCellStyle="标题 2"/>
-    <tableColumn id="9" xr3:uid="{1BBB5338-3611-4497-B533-7DE36487710A}" name="相关章节" headerRowDxfId="31" dataDxfId="7" headerRowCellStyle="标题 2"/>
-    <tableColumn id="10" xr3:uid="{DF325632-A03D-4A20-9DC8-C2333B6A54DF}" name="列3" headerRowDxfId="30" dataDxfId="6" totalsRowDxfId="23" headerRowCellStyle="标题 2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Qty" headerRowDxfId="29" dataDxfId="1" headerRowCellStyle="标题 2">
-      <calculatedColumnFormula array="1">_xlfn.IFS(Issuelist[[#This Row],[列3]]&gt;=10,"PASS",Issuelist[[#This Row],[列3]]=8,"轻微",Issuelist[[#This Row],[列3]]=5,"普通",Issuelist[[#This Row],[列3]]=0,"重要")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="To buy" headerRowDxfId="28" dataDxfId="5" headerRowCellStyle="标题 2"/>
-    <tableColumn id="11" xr3:uid="{F9A123E3-E106-4967-800D-AA04D6B7AD43}" name="列4" headerRowDxfId="27" dataDxfId="4" headerRowCellStyle="标题 2"/>
-    <tableColumn id="1" xr3:uid="{8C9C67F6-2F74-4032-8013-D34BB0294944}" name="列1" headerRowDxfId="26" dataDxfId="3" headerRowCellStyle="标题 2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Cost" headerRowDxfId="25" dataDxfId="0" headerRowCellStyle="标题 2">
-      <calculatedColumnFormula array="1">hy=P23查看详细</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Bought" totalsRowFunction="count" headerRowDxfId="24" dataDxfId="2" headerRowCellStyle="标题 2"/>
-  </tableColumns>
-  <tableStyleInfo name="College Checklist" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
-      <x14:table altTextSummary="Enter Item, Category, Quantity, and Cost in this table. Mark items to buy in To Buy column and brought items in Brought column. Total Cost is automatically calculated"/>
-    </ext>
-  </extLst>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Category" displayName="Category" ref="B3:C6" totalsRowShown="0">
   <autoFilter ref="B3:C6" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0">
@@ -6298,7 +5977,7 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Total cost">
-      <calculatedColumnFormula>IFERROR(SUMIFS(#REF!,Issuelist[列2],Category[[#This Row],[Category]]), "")</calculatedColumnFormula>
+      <calculatedColumnFormula>IFERROR(SUMIFS(#REF!,HealthReport!$D$27:$D$39,Category[[#This Row],[Category]]), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="College Checklist" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6310,7 +5989,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="ToDoList" displayName="ToDoList" ref="B3:C22" totalsRowShown="0">
   <autoFilter ref="B3:C22" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="2">
@@ -6326,7 +6005,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="ShareList" displayName="ShareList" ref="B2:D5" totalsRowShown="0">
   <autoFilter ref="B2:D5" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:C5">
@@ -6579,43 +6258,43 @@
   </sheetPr>
   <dimension ref="B1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="5.25" style="24" customWidth="1"/>
     <col min="3" max="3" width="15.375" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="6.875" customWidth="1"/>
     <col min="6" max="6" width="8.5" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="17.75" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
     <col min="10" max="10" width="10.375" customWidth="1"/>
-    <col min="11" max="11" width="10.5" customWidth="1"/>
+    <col min="11" max="11" width="16.25" customWidth="1"/>
     <col min="12" max="12" width="6.5" customWidth="1"/>
     <col min="13" max="13" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="34"/>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
     </row>
     <row r="2" spans="2:16" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="20"/>
@@ -6649,171 +6328,169 @@
     </row>
     <row r="4" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B4" s="20"/>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27" t="s">
-        <v>60</v>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="29"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="L4" s="14"/>
     </row>
     <row r="5" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B5" s="20"/>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29" t="s">
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="33" t="s">
-        <v>74</v>
+      <c r="G5" s="28"/>
+      <c r="H5" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="25"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="25" t="s">
+        <v>73</v>
       </c>
       <c r="L5" s="14"/>
     </row>
     <row r="6" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20"/>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="27" t="s">
+      <c r="G6" s="28"/>
+      <c r="H6" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25" t="s">
         <v>62</v>
-      </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27" t="s">
-        <v>63</v>
       </c>
       <c r="L6" s="14"/>
     </row>
     <row r="7" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="20"/>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="33" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27" t="s">
-        <v>75</v>
+      <c r="G7" s="28"/>
+      <c r="H7" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25" t="s">
+        <v>74</v>
       </c>
       <c r="L7" s="14"/>
       <c r="P7" s="6">
-        <f>IFERROR(COUNTIFS(Issuelist[To buy],"&gt;0",Issuelist[Bought],"&gt;0")/SumItemsToBuy,0)</f>
+        <f>IFERROR(COUNTIFS(HealthReport!$H$27:$H$39,"&gt;0",HealthReport!$L$27:$L$39,"&gt;0")/SumItemsToBuy,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27" t="s">
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="27" t="s">
+      <c r="G8" s="30"/>
+      <c r="H8" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25" t="s">
         <v>65</v>
-      </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27" t="s">
-        <v>66</v>
       </c>
       <c r="L8" s="14"/>
     </row>
     <row r="9" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="20"/>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27" t="s">
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="27" t="s">
+      <c r="G9" s="30"/>
+      <c r="H9" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25" t="s">
         <v>71</v>
-      </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27" t="s">
-        <v>72</v>
       </c>
       <c r="L9" s="14"/>
     </row>
     <row r="10" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="20"/>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27" t="s">
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="27" t="s">
+      <c r="G10" s="30"/>
+      <c r="H10" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25" t="s">
         <v>67</v>
-      </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27" t="s">
-        <v>68</v>
       </c>
       <c r="L10" s="14"/>
     </row>
     <row r="11" spans="2:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="20"/>
-      <c r="C11" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="27" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25" t="s">
         <v>69</v>
-      </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27" t="s">
-        <v>70</v>
       </c>
       <c r="L11" s="14"/>
     </row>
@@ -6833,14 +6510,14 @@
     <row r="13" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21"/>
       <c r="C13" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="14"/>
       <c r="H13" s="11" t="str">
-        <f>"Health status ("&amp;COUNTIFS(Issuelist[Bought], "&gt;0")&amp;" of "&amp;COUNTIFS(Issuelist[To buy], "&gt;0")&amp;")"</f>
+        <f>"Health status ("&amp;COUNTIFS(HealthReport!$L$27:$L$39, "&gt;0")&amp;" of "&amp;COUNTIFS(HealthReport!$H$27:$H$39, "&gt;0")&amp;")"</f>
         <v>Health status (0 of 0)</v>
       </c>
       <c r="I13" s="14"/>
@@ -6851,14 +6528,14 @@
     <row r="14" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="21"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="26" t="s">
         <v>83</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>84</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -6869,8 +6546,8 @@
     </row>
     <row r="15" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="21"/>
-      <c r="C15" s="27" t="s">
-        <v>85</v>
+      <c r="C15" s="25" t="s">
+        <v>84</v>
       </c>
       <c r="D15" s="12">
         <v>3</v>
@@ -6890,8 +6567,8 @@
     </row>
     <row r="16" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="21"/>
-      <c r="C16" s="27" t="s">
-        <v>78</v>
+      <c r="C16" s="25" t="s">
+        <v>77</v>
       </c>
       <c r="D16" s="12">
         <v>5</v>
@@ -6911,8 +6588,8 @@
     </row>
     <row r="17" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="21"/>
-      <c r="C17" s="27" t="s">
-        <v>77</v>
+      <c r="C17" s="25" t="s">
+        <v>76</v>
       </c>
       <c r="D17" s="12">
         <v>1</v>
@@ -6932,8 +6609,8 @@
     </row>
     <row r="18" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="21"/>
-      <c r="C18" s="27" t="s">
-        <v>97</v>
+      <c r="C18" s="25" t="s">
+        <v>96</v>
       </c>
       <c r="D18" s="12">
         <v>0</v>
@@ -6953,8 +6630,8 @@
     </row>
     <row r="19" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="21"/>
-      <c r="C19" s="27" t="s">
-        <v>79</v>
+      <c r="C19" s="25" t="s">
+        <v>78</v>
       </c>
       <c r="D19" s="12">
         <v>0</v>
@@ -6974,8 +6651,8 @@
     </row>
     <row r="20" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="21"/>
-      <c r="C20" s="27" t="s">
-        <v>80</v>
+      <c r="C20" s="25" t="s">
+        <v>79</v>
       </c>
       <c r="D20" s="12">
         <v>0</v>
@@ -6995,8 +6672,8 @@
     </row>
     <row r="21" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="21"/>
-      <c r="C21" s="27" t="s">
-        <v>81</v>
+      <c r="C21" s="25" t="s">
+        <v>80</v>
       </c>
       <c r="D21" s="12">
         <v>0</v>
@@ -7016,8 +6693,8 @@
     </row>
     <row r="22" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="21"/>
-      <c r="C22" s="27" t="s">
-        <v>82</v>
+      <c r="C22" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="D22" s="12">
         <v>0</v>
@@ -7064,7 +6741,7 @@
     <row r="25" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
@@ -7076,430 +6753,421 @@
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
     </row>
-    <row r="26" spans="2:12" s="39" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="41" t="s">
+    <row r="26" spans="2:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="68">
+        <f>SUM(HealthReport!$F$27:$F$39)/130</f>
+        <v>0.52307692307692311</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="46">
+        <v>1</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50">
+        <v>10</v>
+      </c>
+      <c r="G27" s="51" t="str" cm="1">
+        <f t="array" ref="G27">_xlfn.IFS(HealthReport!$F27&gt;=10,"PASS",HealthReport!$F27=8,"轻微",HealthReport!$F27=5,"普通",HealthReport!$F27=0,"重要")</f>
+        <v>PASS</v>
+      </c>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+    </row>
+    <row r="28" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="53">
+        <v>2</v>
+      </c>
+      <c r="C28" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="G26" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="H26" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="44">
-        <f>SUM(Issuelist[[#All],[列3]])/130</f>
-        <v>0.52307692307692311</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="23">
-        <v>1</v>
-      </c>
-      <c r="C27" s="25" t="s">
+      <c r="D28" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="45" t="s">
+      <c r="E28" s="54"/>
+      <c r="F28" s="56">
+        <v>10</v>
+      </c>
+      <c r="G28" s="57" t="str" cm="1">
+        <f t="array" ref="G28">_xlfn.IFS(HealthReport!$F28&gt;=10,"PASS",HealthReport!$F28=8,"轻微",HealthReport!$F28=5,"普通",HealthReport!$F28=0,"重要")</f>
+        <v>PASS</v>
+      </c>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+    </row>
+    <row r="29" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="46">
+        <v>3</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="46">
+      <c r="E29" s="49"/>
+      <c r="F29" s="50">
         <v>10</v>
       </c>
-      <c r="G27" s="47" t="str" cm="1">
-        <f t="array" ref="G27">_xlfn.IFS(Issuelist[[#This Row],[列3]]&gt;=10,"PASS",Issuelist[[#This Row],[列3]]=8,"轻微",Issuelist[[#This Row],[列3]]=5,"普通",Issuelist[[#This Row],[列3]]=0,"重要")</f>
+      <c r="G29" s="51" t="str" cm="1">
+        <f t="array" ref="G29">_xlfn.IFS(HealthReport!$F29&gt;=10,"PASS",HealthReport!$F29=8,"轻微",HealthReport!$F29=5,"普通",HealthReport!$F29=0,"重要")</f>
         <v>PASS</v>
       </c>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26" t="e" cm="1">
-        <f t="array" ref="K27">hy=P23查看详细</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L27" s="26"/>
-    </row>
-    <row r="28" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="24">
-        <v>2</v>
-      </c>
-      <c r="C28" s="26" t="s">
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+    </row>
+    <row r="30" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="53">
+        <v>4</v>
+      </c>
+      <c r="C30" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="54"/>
+      <c r="F30" s="56">
+        <v>5</v>
+      </c>
+      <c r="G30" s="57" t="str" cm="1">
+        <f t="array" ref="G30">_xlfn.IFS(HealthReport!$F30&gt;=10,"PASS",HealthReport!$F30=8,"轻微",HealthReport!$F30=5,"普通",HealthReport!$F30=0,"重要")</f>
+        <v>普通</v>
+      </c>
+      <c r="H30" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="58" t="str">
+        <f>HYPERLINK("#OS!B5","Detail")</f>
+        <v>Detail</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="46">
+        <v>5</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="49"/>
+      <c r="F31" s="50">
+        <v>10</v>
+      </c>
+      <c r="G31" s="51" t="str" cm="1">
+        <f t="array" ref="G31">_xlfn.IFS(HealthReport!$F31&gt;=10,"PASS",HealthReport!$F31=8,"轻微",HealthReport!$F31=5,"普通",HealthReport!$F31=0,"重要")</f>
+        <v>PASS</v>
+      </c>
+      <c r="H31" s="49"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="52" t="str">
+        <f t="shared" ref="L30:L39" si="0">HYPERLINK("#OS!A1","Detail")</f>
+        <v>Detail</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="53">
+        <v>6</v>
+      </c>
+      <c r="C32" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="54"/>
+      <c r="F32" s="56">
+        <v>10</v>
+      </c>
+      <c r="G32" s="57" t="str" cm="1">
+        <f t="array" ref="G32">_xlfn.IFS(HealthReport!$F32&gt;=10,"PASS",HealthReport!$F32=8,"轻微",HealthReport!$F32=5,"普通",HealthReport!$F32=0,"重要")</f>
+        <v>PASS</v>
+      </c>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v>Detail</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="46">
+        <v>7</v>
+      </c>
+      <c r="C33" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="46">
+      <c r="D33" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" s="49"/>
+      <c r="F33" s="50">
+        <v>8</v>
+      </c>
+      <c r="G33" s="51" t="str" cm="1">
+        <f t="array" ref="G33">_xlfn.IFS(HealthReport!$F33&gt;=10,"PASS",HealthReport!$F33=8,"轻微",HealthReport!$F33=5,"普通",HealthReport!$F33=0,"重要")</f>
+        <v>轻微</v>
+      </c>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>Detail</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="53">
+        <v>8</v>
+      </c>
+      <c r="C34" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="54"/>
+      <c r="F34" s="56">
+        <v>5</v>
+      </c>
+      <c r="G34" s="57" t="str" cm="1">
+        <f t="array" ref="G34">_xlfn.IFS(HealthReport!$F34&gt;=10,"PASS",HealthReport!$F34=8,"轻微",HealthReport!$F34=5,"普通",HealthReport!$F34=0,"重要")</f>
+        <v>普通</v>
+      </c>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v>Detail</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="46">
+        <v>9</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" s="49"/>
+      <c r="F35" s="50">
+        <v>0</v>
+      </c>
+      <c r="G35" s="51" t="str" cm="1">
+        <f t="array" ref="G35">_xlfn.IFS(HealthReport!$F35&gt;=10,"PASS",HealthReport!$F35=8,"轻微",HealthReport!$F35=5,"普通",HealthReport!$F35=0,"重要")</f>
+        <v>重要</v>
+      </c>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>Detail</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="53">
         <v>10</v>
       </c>
-      <c r="G28" s="47" t="str" cm="1">
-        <f t="array" ref="G28">_xlfn.IFS(Issuelist[[#This Row],[列3]]&gt;=10,"PASS",Issuelist[[#This Row],[列3]]=8,"轻微",Issuelist[[#This Row],[列3]]=5,"普通",Issuelist[[#This Row],[列3]]=0,"重要")</f>
-        <v>PASS</v>
-      </c>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26" t="e" cm="1">
-        <f t="array" ref="K28">hy=P23查看详细</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L28" s="26"/>
-    </row>
-    <row r="29" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="23">
-        <v>3</v>
-      </c>
-      <c r="C29" s="26" t="s">
+      <c r="C36" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="46">
-        <v>10</v>
-      </c>
-      <c r="G29" s="47" t="str" cm="1">
-        <f t="array" ref="G29">_xlfn.IFS(Issuelist[[#This Row],[列3]]&gt;=10,"PASS",Issuelist[[#This Row],[列3]]=8,"轻微",Issuelist[[#This Row],[列3]]=5,"普通",Issuelist[[#This Row],[列3]]=0,"重要")</f>
-        <v>PASS</v>
-      </c>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26" t="e" cm="1">
-        <f t="array" ref="K29">hy=P23查看详细</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L29" s="26"/>
-    </row>
-    <row r="30" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="24">
-        <v>4</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="46">
-        <v>5</v>
-      </c>
-      <c r="G30" s="47" t="str" cm="1">
-        <f t="array" ref="G30">_xlfn.IFS(Issuelist[[#This Row],[列3]]&gt;=10,"PASS",Issuelist[[#This Row],[列3]]=8,"轻微",Issuelist[[#This Row],[列3]]=5,"普通",Issuelist[[#This Row],[列3]]=0,"重要")</f>
-        <v>普通</v>
-      </c>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26" t="e" cm="1">
-        <f t="array" ref="K30">hy=P23查看详细</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L30" s="26"/>
-    </row>
-    <row r="31" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="23">
-        <v>5</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="46">
-        <v>10</v>
-      </c>
-      <c r="G31" s="47" t="str" cm="1">
-        <f t="array" ref="G31">_xlfn.IFS(Issuelist[[#This Row],[列3]]&gt;=10,"PASS",Issuelist[[#This Row],[列3]]=8,"轻微",Issuelist[[#This Row],[列3]]=5,"普通",Issuelist[[#This Row],[列3]]=0,"重要")</f>
-        <v>PASS</v>
-      </c>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26" t="e" cm="1">
-        <f t="array" ref="K31">hy=P23查看详细</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L31" s="26"/>
-    </row>
-    <row r="32" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="24">
-        <v>6</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="46">
-        <v>10</v>
-      </c>
-      <c r="G32" s="47" t="str" cm="1">
-        <f t="array" ref="G32">_xlfn.IFS(Issuelist[[#This Row],[列3]]&gt;=10,"PASS",Issuelist[[#This Row],[列3]]=8,"轻微",Issuelist[[#This Row],[列3]]=5,"普通",Issuelist[[#This Row],[列3]]=0,"重要")</f>
-        <v>PASS</v>
-      </c>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26" t="e" cm="1">
-        <f t="array" ref="K32">hy=P23查看详细</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L32" s="26"/>
-    </row>
-    <row r="33" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="23">
-        <v>7</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="E33" s="26"/>
-      <c r="F33" s="46">
-        <v>8</v>
-      </c>
-      <c r="G33" s="47" t="str" cm="1">
-        <f t="array" ref="G33">_xlfn.IFS(Issuelist[[#This Row],[列3]]&gt;=10,"PASS",Issuelist[[#This Row],[列3]]=8,"轻微",Issuelist[[#This Row],[列3]]=5,"普通",Issuelist[[#This Row],[列3]]=0,"重要")</f>
-        <v>轻微</v>
-      </c>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26" t="e" cm="1">
-        <f t="array" ref="K33">hy=P23查看详细</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L33" s="26"/>
-    </row>
-    <row r="34" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="24">
-        <v>8</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="E34" s="26"/>
-      <c r="F34" s="46">
-        <v>5</v>
-      </c>
-      <c r="G34" s="47" t="str" cm="1">
-        <f t="array" ref="G34">_xlfn.IFS(Issuelist[[#This Row],[列3]]&gt;=10,"PASS",Issuelist[[#This Row],[列3]]=8,"轻微",Issuelist[[#This Row],[列3]]=5,"普通",Issuelist[[#This Row],[列3]]=0,"重要")</f>
-        <v>普通</v>
-      </c>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26" t="e" cm="1">
-        <f t="array" ref="K34">hy=P23查看详细</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L34" s="26"/>
-    </row>
-    <row r="35" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="23">
-        <v>9</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="E35" s="26"/>
-      <c r="F35" s="46">
+      <c r="D36" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="54"/>
+      <c r="F36" s="56">
         <v>0</v>
       </c>
-      <c r="G35" s="47" t="str" cm="1">
-        <f t="array" ref="G35">_xlfn.IFS(Issuelist[[#This Row],[列3]]&gt;=10,"PASS",Issuelist[[#This Row],[列3]]=8,"轻微",Issuelist[[#This Row],[列3]]=5,"普通",Issuelist[[#This Row],[列3]]=0,"重要")</f>
+      <c r="G36" s="57" t="str" cm="1">
+        <f t="array" ref="G36">_xlfn.IFS(HealthReport!$F36&gt;=10,"PASS",HealthReport!$F36=8,"轻微",HealthReport!$F36=5,"普通",HealthReport!$F36=0,"重要")</f>
         <v>重要</v>
       </c>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26" t="e" cm="1">
-        <f t="array" ref="K35">hy=P23查看详细</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L35" s="26"/>
-    </row>
-    <row r="36" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="24">
-        <v>10</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="E36" s="26"/>
-      <c r="F36" s="46">
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v>Detail</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="46">
+        <v>11</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="49"/>
+      <c r="F37" s="50">
         <v>0</v>
       </c>
-      <c r="G36" s="47" t="str" cm="1">
-        <f t="array" ref="G36">_xlfn.IFS(Issuelist[[#This Row],[列3]]&gt;=10,"PASS",Issuelist[[#This Row],[列3]]=8,"轻微",Issuelist[[#This Row],[列3]]=5,"普通",Issuelist[[#This Row],[列3]]=0,"重要")</f>
+      <c r="G37" s="51" t="str" cm="1">
+        <f t="array" ref="G37">_xlfn.IFS(HealthReport!$F37&gt;=10,"PASS",HealthReport!$F37=8,"轻微",HealthReport!$F37=5,"普通",HealthReport!$F37=0,"重要")</f>
         <v>重要</v>
       </c>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26" t="e" cm="1">
-        <f t="array" ref="K36">hy=P23查看详细</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L36" s="26"/>
-    </row>
-    <row r="37" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="23">
-        <v>11</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="E37" s="26"/>
-      <c r="F37" s="46">
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>Detail</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="53">
+        <v>12</v>
+      </c>
+      <c r="C38" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="56">
         <v>0</v>
       </c>
-      <c r="G37" s="47" t="str" cm="1">
-        <f t="array" ref="G37">_xlfn.IFS(Issuelist[[#This Row],[列3]]&gt;=10,"PASS",Issuelist[[#This Row],[列3]]=8,"轻微",Issuelist[[#This Row],[列3]]=5,"普通",Issuelist[[#This Row],[列3]]=0,"重要")</f>
+      <c r="G38" s="57" t="str" cm="1">
+        <f t="array" ref="G38">_xlfn.IFS(HealthReport!$F38&gt;=10,"PASS",HealthReport!$F38=8,"轻微",HealthReport!$F38=5,"普通",HealthReport!$F38=0,"重要")</f>
         <v>重要</v>
       </c>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26" t="e" cm="1">
-        <f t="array" ref="K37">hy=P23查看详细</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L37" s="26"/>
-    </row>
-    <row r="38" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="24">
-        <v>12</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="46">
-        <v>0</v>
-      </c>
-      <c r="G38" s="47" t="str" cm="1">
-        <f t="array" ref="G38">_xlfn.IFS(Issuelist[[#This Row],[列3]]&gt;=10,"PASS",Issuelist[[#This Row],[列3]]=8,"轻微",Issuelist[[#This Row],[列3]]=5,"普通",Issuelist[[#This Row],[列3]]=0,"重要")</f>
-        <v>重要</v>
-      </c>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26" t="e" cm="1">
-        <f t="array" ref="K38">hy=P23查看详细</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L38" s="26"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v>Detail</v>
+      </c>
     </row>
     <row r="39" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="23">
         <v>13</v>
       </c>
-      <c r="C39" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="46">
+      <c r="C39" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="63">
         <v>0</v>
       </c>
-      <c r="G39" s="47" t="str" cm="1">
-        <f t="array" ref="G39">_xlfn.IFS(Issuelist[[#This Row],[列3]]&gt;=10,"PASS",Issuelist[[#This Row],[列3]]=8,"轻微",Issuelist[[#This Row],[列3]]=5,"普通",Issuelist[[#This Row],[列3]]=0,"重要")</f>
+      <c r="G39" s="64" t="str" cm="1">
+        <f t="array" ref="G39">_xlfn.IFS(HealthReport!$F39&gt;=10,"PASS",HealthReport!$F39=8,"轻微",HealthReport!$F39=5,"普通",HealthReport!$F39=0,"重要")</f>
         <v>重要</v>
       </c>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26" t="e" cm="1">
-        <f t="array" ref="K39">hy=P23查看详细</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L39" s="26"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v>Detail</v>
+      </c>
     </row>
     <row r="40" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G40" s="24"/>
     </row>
   </sheetData>
   <dataConsolidate/>
+  <mergeCells count="1">
+    <mergeCell ref="H30:K30"/>
+  </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
-  <conditionalFormatting sqref="J13:L17 H17 H18:L24 B12:L12">
-    <cfRule type="notContainsBlanks" dxfId="20" priority="17">
+  <conditionalFormatting sqref="B13:B24">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="3">
+      <formula>LEN(TRIM(B13))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:C14">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="4">
+      <formula>LEN(TRIM(B14))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:L12 J13:L17 H17 H18:L24">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="17">
       <formula>LEN(TRIM(B12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G11 G13:G19">
-    <cfRule type="notContainsBlanks" dxfId="19" priority="18">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="18">
       <formula>LEN(TRIM(G8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:H15">
-    <cfRule type="notContainsBlanks" dxfId="18" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="10">
       <formula>LEN(TRIM(H14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:I16">
-    <cfRule type="notContainsBlanks" dxfId="17" priority="16">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="16">
       <formula>LEN(TRIM(H16))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="notContainsBlanks" dxfId="16" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="7">
       <formula>LEN(TRIM(I13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L11 P7">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="19">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="19">
       <formula>LEN(TRIM(L4))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
-    <cfRule type="notContainsBlanks" dxfId="14" priority="5">
-      <formula>LEN(TRIM(B13))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:C14 B14:B23">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="4">
-      <formula>LEN(TRIM(B14))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="notContainsBlanks" dxfId="12" priority="3">
-      <formula>LEN(TRIM(B24))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="163" yWindow="433" count="13">
@@ -7521,7 +7189,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="56" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="58" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -7530,12 +7198,28 @@
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId4"/>
-  </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{D7E11CA3-AE2E-4AE0-8760-69AFD47E19CB}">
+            <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>5</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>10</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F27:F39</xm:sqref>
+        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="126" id="{904FC827-5D32-400A-97DB-D891D8D2E589}">
             <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
@@ -7553,7 +7237,26 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H27:J39</xm:sqref>
+          <xm:sqref>H27 J27 H28:J29 H33:J39 I31:J32 H30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="128" id="{91FC4C5D-AF8B-4E30-B194-1E2B2576DFF5}">
+            <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>K28:K29 K31:K39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="127" id="{D6CA9112-E31E-493B-AC44-8CFD7A9AFAFB}">
@@ -7574,44 +7277,6 @@
           </x14:cfRule>
           <xm:sqref>L28:L39</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="128" id="{91FC4C5D-AF8B-4E30-B194-1E2B2576DFF5}">
-            <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>K28:K39 L27</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{D7E11CA3-AE2E-4AE0-8760-69AFD47E19CB}">
-            <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>5</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>10</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>F27:F39</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -7627,115 +7292,119 @@
       <selection activeCell="B3" sqref="B3"/>
       <selection pane="topRight" activeCell="B3" sqref="B3"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.25" style="51" customWidth="1"/>
-    <col min="2" max="26" width="70" style="50" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="51"/>
+    <col min="1" max="1" width="19.25" style="42" customWidth="1"/>
+    <col min="2" max="26" width="70" style="41" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="41" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="41" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="52" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="41" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="50" t="s">
+      <c r="C5" s="66" t="str">
+        <f>HYPERLINK("#HealthReport!B30","Retrun")</f>
+        <v>Retrun</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="40" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
+      <c r="B7" s="41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="50" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+      <c r="B8" s="41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="50" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+      <c r="B9" s="41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="50" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
+      <c r="B10" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="B10" s="50" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
+      <c r="B11" s="41" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="50" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="50" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" s="52" t="s">
-        <v>120</v>
+      <c r="B13" s="43" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -7758,275 +7427,275 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.25" style="51" customWidth="1"/>
-    <col min="2" max="26" width="87.5" style="50" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="51"/>
+    <col min="1" max="1" width="19.25" style="42" customWidth="1"/>
+    <col min="2" max="26" width="87.5" style="41" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="375" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="50" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="375" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="53" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="B4" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="50" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="B5" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="52" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="390" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="B6" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="50" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="40" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
+      <c r="B7" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="50" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+      <c r="B8" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="52" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+      <c r="B9" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="B9" s="53" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="375" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="375" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
+      <c r="B10" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="52" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
+      <c r="B11" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="B11" s="54" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
+      <c r="B12" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="B12" s="50" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
+      <c r="B13" s="41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="B13" s="50" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
+      <c r="B14" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="B14" s="50" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
+      <c r="B15" s="41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="B15" s="50" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+      <c r="B16" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="B16" s="50" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="40" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
+      <c r="B17" s="41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A18" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="B17" s="50" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
+      <c r="B18" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="50" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="40" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="s">
+      <c r="B19" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="B19" s="50" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A20" s="40" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
+      <c r="B20" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="B20" s="50" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="40" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="49" t="s">
+      <c r="B21" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="B21" s="52" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="40" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="49" t="s">
+      <c r="B22" s="45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="B22" s="54" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="49" t="s">
+      <c r="B23" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="B23" s="54" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="40" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="49" t="s">
+      <c r="B24" s="41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="50" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="49" t="s">
+      <c r="B25" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="B25" s="54" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="40" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="49" t="s">
+      <c r="B26" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="B26" s="50" t="s">
+    </row>
+    <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="40" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="49" t="s">
+      <c r="B27" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="B27" s="50" t="s">
+    </row>
+    <row r="28" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="40" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="49" t="s">
+      <c r="B28" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="B28" s="50" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="40" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
+      <c r="B29" s="41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A30" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="B29" s="50" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A30" s="49" t="s">
+      <c r="B30" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="B30" s="50" t="s">
+    </row>
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="40" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="49" t="s">
+      <c r="B31" s="41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="B31" s="50" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="49" t="s">
+      <c r="B32" s="41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="B32" s="50" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="49" t="s">
-        <v>181</v>
-      </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="49" t="s">
-        <v>181</v>
+      <c r="A34" s="40" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -8080,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f>IFERROR(SUMIFS(#REF!,Issuelist[列2],Category[[#This Row],[Category]]), "")</f>
+        <f>IFERROR(SUMIFS(#REF!,HealthReport!$D$27:$D$39,Category[[#This Row],[Category]]), "")</f>
         <v/>
       </c>
     </row>
@@ -8089,7 +7758,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f>IFERROR(SUMIFS(#REF!,Issuelist[列2],Category[[#This Row],[Category]]), "")</f>
+        <f>IFERROR(SUMIFS(#REF!,HealthReport!$D$27:$D$39,Category[[#This Row],[Category]]), "")</f>
         <v/>
       </c>
     </row>
@@ -8098,7 +7767,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="1" t="str">
-        <f>IFERROR(SUMIFS(#REF!,Issuelist[列2],Category[[#This Row],[Category]]), "")</f>
+        <f>IFERROR(SUMIFS(#REF!,HealthReport!$D$27:$D$39,Category[[#This Row],[Category]]), "")</f>
         <v/>
       </c>
     </row>
@@ -8284,7 +7953,7 @@
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="B4:C22">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>LEN($B4)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8399,6 +8068,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac37c1753acd5e330d2062ccec26ea66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b340c7101c92c5120abd06486f94548" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8698,36 +8396,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D4997A-F5D7-47B8-8021-08C076C5E1C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D1BB4A4-C009-44B7-9F89-7FA7A7BF749B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98E7F3D6-785F-49FE-8501-BF769B99AE88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8748,26 +8437,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D1BB4A4-C009-44B7-9F89-7FA7A7BF749B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D4997A-F5D7-47B8-8021-08C076C5E1C7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>